--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -247,7 +247,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -255,7 +255,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -263,7 +263,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -271,7 +271,7 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -279,7 +279,7 @@
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -287,7 +287,7 @@
     </row>
     <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
@@ -295,25 +295,9 @@
     </row>
     <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,94 +28,22 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu122@mailinator.com</t>
+    <t xml:space="preserve">exu156@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu123@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu124@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu125@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu126@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu127@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu128@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu129@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu130@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu131@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu132@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu133@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu134@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu135@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu136@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu137@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu138@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu139@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu140@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu141@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu142@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu143@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu144@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu145@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu146@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu147@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu148@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu149@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu150@mailinator.com</t>
+    <t xml:space="preserve">exu157@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu158@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu159@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu160@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -223,18 +151,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="19.9795918367347" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="9.04591836734694" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="25.3775510204082" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="18.765306122449" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="27.530612244898" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="8.77551020408163" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="25.1071428571429" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="18.4948979591837" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -247,7 +177,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -255,7 +185,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -263,7 +193,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -271,33 +201,9 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -177,33 +177,9 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,22 +28,67 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu156@mailinator.com</t>
+    <t xml:space="preserve">auttestt_41@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu157@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu158@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu159@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu160@mailinator.com</t>
+    <t xml:space="preserve">auttestt_42@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_43@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_44@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_45@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_46@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_47@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_48@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_49@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_50@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_51@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_52@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_53@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_54@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_55@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_56@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_57@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_58@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_59@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auttestt_60@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -151,20 +196,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="27.530612244898" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="8.77551020408163" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="25.1071428571429" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="18.4948979591837" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="25.3775510204082" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="23.0816326530612" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="17.0102040816327" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -173,6 +218,118 @@
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,31 +28,10 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">auttestt_41@mailinator.com</t>
+    <t xml:space="preserve">auttestt_48@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_42@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_43@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_44@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_45@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_46@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_47@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_48@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">auttestt_49@mailinator.com</t>
@@ -196,20 +175,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B21"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="25.3775510204082" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="23.0816326530612" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="17.0102040816327" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.7397959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -220,115 +197,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B9" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B10" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B11" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B12" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B13" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="B14" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -183,10 +183,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.7397959183673"/>
+    <col min="1" max="1" hidden="false" style="0" width="25.1071428571429" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="22.8112244897959" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="16.7397959183673" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -197,107 +197,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,46 +28,67 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">auttestt_48@mailinator.com</t>
+    <t xml:space="preserve">Sanuserr_11@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">auttestt_49@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_50@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_51@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_52@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_53@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_54@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_55@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_56@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_57@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_58@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_59@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auttestt_60@mailinator.com</t>
+    <t xml:space="preserve">Sanuserr_12@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_13@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_14@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_15@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_16@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_17@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_18@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_19@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_20@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_21@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_22@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_23@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_24@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_25@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_26@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_27@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_28@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_29@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuserr_30@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -175,18 +196,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="25.1071428571429" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="22.8112244897959" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="16.7397959183673" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="24.3010204081633" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="22.0051020408163" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="15.9285714285714" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -199,7 +222,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -207,7 +230,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -215,7 +238,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -223,7 +246,7 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -231,7 +254,7 @@
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -239,7 +262,7 @@
     </row>
     <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
@@ -247,7 +270,7 @@
     </row>
     <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
@@ -255,7 +278,7 @@
     </row>
     <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
@@ -263,7 +286,7 @@
     </row>
     <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
@@ -271,7 +294,7 @@
     </row>
     <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
@@ -279,7 +302,7 @@
     </row>
     <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
@@ -287,9 +310,57 @@
     </row>
     <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -179,25 +179,9 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,25 +28,22 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">adnewuser_190@mailinator.com</t>
+    <t xml:space="preserve">Onlyonetestsim_16@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">adnewuser_191@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_192@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_193@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_194@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_195@mailinator.com</t>
+    <t xml:space="preserve">Onlyonetestsim_17@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onlyonetestsim_18@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onlyonetestsim_19@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onlyonetestsim_20@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -56,7 +53,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -84,6 +81,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,12 +130,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -154,19 +160,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B7"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="23.4897959183673" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="21.4642857142857" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="15.5255102040816" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="36.5" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="12.4183673469388" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="16.469387755102" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="12.1479591836735" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -179,25 +186,33 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,22 +28,37 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Onlyonetestsim_16@mailinator.com</t>
+    <t xml:space="preserve">Newstguser_1@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">Onlyonetestsim_17@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onlyonetestsim_18@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onlyonetestsim_19@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onlyonetestsim_20@mailinator.com</t>
+    <t xml:space="preserve">Newstguser_2@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_3@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_4@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_5@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_6@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_7@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_8@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_9@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_10@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -160,19 +175,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="36.5" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="12.4183673469388" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="38.3367346938776" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="11.6071428571429" collapsed="true"/>
     <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="16.469387755102" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="12.1479591836735" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="15.5255102040816" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="11.0714285714286" collapsed="true"/>
     <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
@@ -185,8 +200,8 @@
       </c>
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -194,7 +209,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -202,7 +217,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -210,9 +225,33 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -28,37 +28,37 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Newstguser_1@mailinator.com</t>
+    <t xml:space="preserve">Newstguser_11@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">Newstguser_2@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_3@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_4@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_5@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_6@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_7@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_8@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_9@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_10@mailinator.com</t>
+    <t xml:space="preserve">Newstguser_12@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_13@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_14@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_15@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_16@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_17@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_18@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_19@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_20@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -96,11 +96,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,16 +140,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,12 +174,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="38.3367346938776" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="11.6071428571429" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="15.5255102040816" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="11.0714285714286" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="37.7959183673469" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="11.3418367346939" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="15.3877551020408" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="10.8010204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -200,58 +189,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
+      <c r="A2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
+      <c r="A3" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
+      <c r="A4" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -190,7 +190,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -198,17 +198,9 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -188,22 +188,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -28,37 +28,37 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Newstguser_11@mailinator.com</t>
+    <t xml:space="preserve">Newstguser_21@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">Newstguser_12@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_13@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_14@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_15@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_16@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_17@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_18@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_19@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_20@mailinator.com</t>
+    <t xml:space="preserve">Newstguser_22@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_23@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_24@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_25@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_26@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_27@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_28@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_29@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_30@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -174,10 +174,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="37.7959183673469" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="11.3418367346939" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="15.3877551020408" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="10.8010204081633" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="37.3928571428571" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="11.0714285714286" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="15.2551020408163" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="10.6632653061225" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -186,6 +188,78 @@
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,37 +28,40 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Newstguser_21@mailinator.com</t>
+    <t xml:space="preserve">Newstguser_30@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">Newstguser_22@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_23@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_24@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_25@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_26@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_27@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_28@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_29@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_30@mailinator.com</t>
+    <t xml:space="preserve">Newstguser_31@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_32@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_33@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_34@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_35@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_36@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_37@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_38@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_39@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newstguser_40@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -166,20 +169,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B11"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="37.3928571428571" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="11.0714285714286" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="15.2551020408163" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="10.6632653061225" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="36.9897959183673" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="10.8010204081633" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="15.1173469387755" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -192,7 +195,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -200,7 +203,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -208,7 +211,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -216,7 +219,7 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -224,7 +227,7 @@
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -232,7 +235,7 @@
     </row>
     <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
@@ -240,7 +243,7 @@
     </row>
     <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
@@ -248,17 +251,9 @@
     </row>
     <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -195,7 +195,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -203,7 +203,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -211,7 +211,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -219,7 +219,7 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -227,7 +227,7 @@
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -235,25 +235,9 @@
     </row>
     <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,34 +28,10 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Newstguser_30@mailinator.com</t>
+    <t xml:space="preserve">Newstguser_38@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_31@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_32@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_33@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_34@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_35@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_36@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_37@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_38@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">Newstguser_39@mailinator.com</t>
@@ -169,20 +145,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B12"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="36.9897959183673" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="10.8010204081633" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="15.1173469387755" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="36.5816326530612" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="10.6632653061225" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="14.8469387755102" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -195,7 +171,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -203,41 +179,9 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,16 +28,10 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Newstguser_38@mailinator.com</t>
+    <t xml:space="preserve">Newstguser_40@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_39@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newstguser_40@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -145,7 +139,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -153,12 +147,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="36.5816326530612" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="10.6632653061225" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="14.8469387755102" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -169,19 +161,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -169,22 +169,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -147,10 +147,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2602040816327"/>
+    <col min="1" max="1" hidden="false" style="0" width="36.1785714285714" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="14.5816326530612" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="10.2602040816327" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -159,14 +159,6 @@
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/dataRepository/logindata_localstg.xlsx
+++ b/src/main/java/dataRepository/logindata_localstg.xlsx
@@ -186,41 +186,9 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
